--- a/conditions-fixed.xlsx
+++ b/conditions-fixed.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>numOfTargets</t>
   </si>
@@ -20,6 +20,9 @@
   </si>
   <si>
     <t>inclSecondScreen</t>
+  </si>
+  <si>
+    <t>hidePrimary</t>
   </si>
 </sst>
 </file>
@@ -87,6 +90,9 @@
       <c t="s" r="C1">
         <v>2</v>
       </c>
+      <c t="s" r="D1">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -98,6 +104,9 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -109,6 +118,9 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -120,6 +132,9 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -131,6 +146,9 @@
       <c r="C5">
         <v>1</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -142,6 +160,9 @@
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -153,6 +174,9 @@
       <c r="C7">
         <v>1</v>
       </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -164,6 +188,9 @@
       <c r="C8">
         <v>1</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -175,6 +202,9 @@
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -186,6 +216,9 @@
       <c r="C10">
         <v>1</v>
       </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -196,6 +229,9 @@
       </c>
       <c r="C11">
         <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -208,6 +244,9 @@
       <c r="C12">
         <v>1</v>
       </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -219,6 +258,9 @@
       <c r="C13">
         <v>1</v>
       </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -230,6 +272,9 @@
       <c r="C14">
         <v>1</v>
       </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -241,6 +286,9 @@
       <c r="C15">
         <v>1</v>
       </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -252,6 +300,9 @@
       <c r="C16">
         <v>1</v>
       </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -263,6 +314,9 @@
       <c r="C17">
         <v>1</v>
       </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -274,6 +328,9 @@
       <c r="C18">
         <v>1</v>
       </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -285,6 +342,9 @@
       <c r="C19">
         <v>1</v>
       </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -296,6 +356,9 @@
       <c r="C20">
         <v>1</v>
       </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -307,6 +370,9 @@
       <c r="C21">
         <v>1</v>
       </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -318,6 +384,9 @@
       <c r="C22">
         <v>1</v>
       </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -329,6 +398,9 @@
       <c r="C23">
         <v>1</v>
       </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -340,6 +412,9 @@
       <c r="C24">
         <v>1</v>
       </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -351,6 +426,9 @@
       <c r="C25">
         <v>1</v>
       </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -362,6 +440,9 @@
       <c r="C26">
         <v>1</v>
       </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -373,6 +454,9 @@
       <c r="C27">
         <v>0</v>
       </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -382,6 +466,9 @@
         <v>0</v>
       </c>
       <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
         <v>0</v>
       </c>
     </row>
@@ -395,6 +482,9 @@
       <c r="C29">
         <v>0</v>
       </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -406,6 +496,9 @@
       <c r="C30">
         <v>0</v>
       </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -417,6 +510,9 @@
       <c r="C31">
         <v>0</v>
       </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/conditions-fixed.xlsx
+++ b/conditions-fixed.xlsx
@@ -147,7 +147,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -306,13 +306,13 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -320,13 +320,13 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -334,13 +334,13 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -348,114 +348,114 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B20">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>0.25</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B23">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B26">
-        <v>100</v>
+        <v>0.25</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -463,55 +463,139 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>0.5</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>0.75</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
